--- a/data/beds-vents-1109.xlsx
+++ b/data/beds-vents-1109.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="637">
   <si>
     <t>DATE</t>
   </si>
@@ -1922,6 +1922,9 @@
   </si>
   <si>
     <t>2021-11-07</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O622"/>
+  <dimension ref="A1:O623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30691,6 +30694,53 @@
         <v>75.13</v>
       </c>
     </row>
+    <row r="623" spans="1:15">
+      <c r="A623" t="s">
+        <v>636</v>
+      </c>
+      <c r="B623">
+        <v>2211</v>
+      </c>
+      <c r="C623">
+        <v>336</v>
+      </c>
+      <c r="D623">
+        <v>1228</v>
+      </c>
+      <c r="E623">
+        <v>647</v>
+      </c>
+      <c r="F623">
+        <v>2771</v>
+      </c>
+      <c r="G623">
+        <v>154</v>
+      </c>
+      <c r="H623">
+        <v>557</v>
+      </c>
+      <c r="I623">
+        <v>2060</v>
+      </c>
+      <c r="J623">
+        <v>15.2</v>
+      </c>
+      <c r="K623">
+        <v>55.54</v>
+      </c>
+      <c r="L623">
+        <v>29.26</v>
+      </c>
+      <c r="M623">
+        <v>5.56</v>
+      </c>
+      <c r="N623">
+        <v>20.1</v>
+      </c>
+      <c r="O623">
+        <v>74.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
